--- a/var_tvar_ifrs17_0.xlsx
+++ b/var_tvar_ifrs17_0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D4ED1-00E8-4B45-9628-BE775BE835E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F076F844-7935-4034-AA85-895CA5A15AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +436,14 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1338.7929197892929</v>
+        <v>-8117.1784099570395</v>
       </c>
       <c r="D2">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E2">
+        <f>A2*5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -447,13 +451,17 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.986024697262149</v>
+        <v>11.86416963440692</v>
       </c>
       <c r="C3">
-        <v>-143.87659288097811</v>
+        <v>-190.78745600619851</v>
       </c>
       <c r="D3">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">A3*5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,13 +469,17 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>37.904182994655343</v>
+        <v>22.159050284728579</v>
       </c>
       <c r="C4">
-        <v>-105.034295200814</v>
+        <v>-158.87517591791419</v>
       </c>
       <c r="D4">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -475,13 +487,17 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.052215102647217</v>
+        <v>32.081809779294503</v>
       </c>
       <c r="C5">
-        <v>-74.013937526696594</v>
+        <v>-135.2151950524534</v>
       </c>
       <c r="D5">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -489,13 +505,17 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75.269303737622195</v>
+        <v>41.915924289509277</v>
       </c>
       <c r="C6">
-        <v>-44.555478369646487</v>
+        <v>-115.5996185815776</v>
       </c>
       <c r="D6">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,13 +523,17 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>96.290020289796018</v>
+        <v>51.808149463495909</v>
       </c>
       <c r="C7">
-        <v>-14.98186356320203</v>
+        <v>-97.602426544806093</v>
       </c>
       <c r="D7">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -517,13 +541,17 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>120.2536709781476</v>
+        <v>61.874400241392642</v>
       </c>
       <c r="C8">
-        <v>16.37157175009515</v>
+        <v>-80.88524475046124</v>
       </c>
       <c r="D8">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,17 +559,17 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>149.04301826532671</v>
+        <v>72.249267818430241</v>
       </c>
       <c r="C9">
-        <v>52.273647771997616</v>
+        <v>-65.025533115946416</v>
       </c>
       <c r="D9">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
       </c>
       <c r="E9">
-        <f>C9/D9</f>
-        <v>0.1375521532639285</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,13 +577,17 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>186.80228758117741</v>
+        <v>83.022353771344356</v>
       </c>
       <c r="C10">
-        <v>96.962854488667233</v>
+        <v>-48.918838972949473</v>
       </c>
       <c r="D10">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,13 +595,201 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>246.39552585840599</v>
+        <v>94.288441766459712</v>
       </c>
       <c r="C11">
-        <v>163.8250562426395</v>
+        <v>-32.868471562504332</v>
       </c>
       <c r="D11">
-        <v>380.02784057983769</v>
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>106.2128193839422</v>
+      </c>
+      <c r="C12">
+        <v>-16.96546108377386</v>
+      </c>
+      <c r="D12">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>118.96139682180549</v>
+      </c>
+      <c r="C13">
+        <v>-4.2241799022949222E-2</v>
+      </c>
+      <c r="D13">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>132.72819287672499</v>
+      </c>
+      <c r="C14">
+        <v>17.792916195655032</v>
+      </c>
+      <c r="D14">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>147.79977038135681</v>
+      </c>
+      <c r="C15">
+        <v>36.812991365479981</v>
+      </c>
+      <c r="D15">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>164.62437082494159</v>
+      </c>
+      <c r="C16">
+        <v>57.319258982637628</v>
+      </c>
+      <c r="D16">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>183.81146516841929</v>
+      </c>
+      <c r="C17">
+        <v>80.345221980445316</v>
+      </c>
+      <c r="D17">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <f>C17/D17</f>
+        <v>0.18894094996618813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>206.45545706553989</v>
+      </c>
+      <c r="C18">
+        <v>106.7604372249816</v>
+      </c>
+      <c r="D18">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>234.64173467716071</v>
+      </c>
+      <c r="C19">
+        <v>138.45336249203061</v>
+      </c>
+      <c r="D19">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>272.75985156344058</v>
+      </c>
+      <c r="C20">
+        <v>181.0097468822031</v>
+      </c>
+      <c r="D20">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>334.0846941082325</v>
+      </c>
+      <c r="C21">
+        <v>248.53150399737649</v>
+      </c>
+      <c r="D21">
+        <v>425.23985401165532</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/var_tvar_ifrs17_0.xlsx
+++ b/var_tvar_ifrs17_0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F076F844-7935-4034-AA85-895CA5A15AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D3730-F3E1-4FD5-9F70-02279F52BDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>TVar</t>
+    <t>Var - media</t>
   </si>
   <si>
-    <t>Var</t>
+    <t>media</t>
   </si>
   <si>
-    <t>ibnr_mean</t>
+    <t>Tvar - media</t>
+  </si>
+  <si>
+    <t>Percentil</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,13 +99,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -409,26 +424,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -446,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -463,8 +485,20 @@
         <f t="shared" ref="E3:E21" si="0">A3*5</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="1">C3/D3</f>
+        <v>-0.44865845523728654</v>
+      </c>
+      <c r="G3">
+        <f>B3/D3</f>
+        <v>2.7899947576601646E-2</v>
+      </c>
+      <c r="H3">
+        <f>D3+B3</f>
+        <v>437.10402364606227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -481,8 +515,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>-0.37361309016336841</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G21" si="2">B4/D4</f>
+        <v>5.2109533186231474E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="3">D4+B4</f>
+        <v>447.39890429638388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -499,8 +545,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-0.31797394758946396</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>7.544403347108472E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>457.32166379094986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -517,8 +575,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-0.27184568306810009</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>9.8570074968468063E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>467.15577830116462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -535,8 +605,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.22952323406199582</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.12183277031713943</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>477.04800347515123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -553,8 +635,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.19021087508003018</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.14550470671475854</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>487.11425425304799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -571,8 +665,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.15291495494249732</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.16990239070218938</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>497.48912183008554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -589,8 +695,20 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-0.11503822727680803</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.19523653060295898</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>508.26220778299967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -607,8 +725,20 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-7.7293958344749711E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.2217300210150937</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>519.52829577811508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -625,8 +755,20 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-3.9896216038369861E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.24977155452844982</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>531.45267339559757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -643,8 +785,20 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-9.9336406558430014E-5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.27975128788973974</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>544.20125083346079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -661,8 +815,20 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4.1842071075415592E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.3121254784202025</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>557.96804688838029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -679,8 +845,20 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>8.6569946391880245E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.3475680112930003</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>573.0396243930121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -697,8 +875,20 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.13479277269497553</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.38713297747588221</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>589.86422483659692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -719,8 +909,16 @@
         <f>C17/D17</f>
         <v>0.18894094996618813</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>B17/D17</f>
+        <v>0.43225361742171331</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>609.05131918007464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -737,8 +935,20 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>C18/D18</f>
+        <v>0.2510593403177479</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.48550354609961177</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>631.69531107719524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -755,8 +965,20 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" ref="F18:F21" si="4">C19/D19</f>
+        <v>0.3255888675200132</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.55178679153325416</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>659.88158868881601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -773,8 +995,20 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.42566505743660105</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.64142588938986078</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>697.99970557509596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -790,6 +1024,18 @@
       <c r="E21">
         <f t="shared" si="0"/>
         <v>95</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.58445016771773362</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.78563824852379815</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>759.32454811988782</v>
       </c>
     </row>
   </sheetData>
